--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>1.658160002529</v>
+        <v>4.727257397935111</v>
       </c>
       <c r="R2">
-        <v>14.923440022761</v>
+        <v>42.545316581416</v>
       </c>
       <c r="S2">
-        <v>0.01912145241815577</v>
+        <v>0.05160391807612647</v>
       </c>
       <c r="T2">
-        <v>0.01912145241815577</v>
+        <v>0.0516039180761265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.264889250694</v>
+        <v>0.6747872827259999</v>
       </c>
       <c r="R3">
-        <v>2.384003256246</v>
+        <v>6.073085544533999</v>
       </c>
       <c r="S3">
-        <v>0.003054631154714318</v>
+        <v>0.00736614589081076</v>
       </c>
       <c r="T3">
-        <v>0.003054631154714318</v>
+        <v>0.007366145890810765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,42 +682,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.40355468579</v>
+        <v>0.8003298258055553</v>
       </c>
       <c r="R4">
-        <v>3.63199217211</v>
+        <v>7.202968432249999</v>
       </c>
       <c r="S4">
-        <v>0.004653683426622353</v>
+        <v>0.008736599530795712</v>
       </c>
       <c r="T4">
-        <v>0.004653683426622353</v>
+        <v>0.008736599530795718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,60 +726,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.34891866666666</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>34.04675599999999</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.7650877144845757</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.7650877144845759</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>47.28471352765199</v>
+        <v>0.08169227507277776</v>
       </c>
       <c r="R5">
-        <v>425.5624217488679</v>
+        <v>0.735230475655</v>
       </c>
       <c r="S5">
-        <v>0.5452745202188718</v>
+        <v>0.0008917732028193398</v>
       </c>
       <c r="T5">
-        <v>0.5452745202188719</v>
+        <v>0.0008917732028193404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.34891866666666</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>34.04675599999999</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.7650877144845757</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.7650877144845759</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>7.553681379671997</v>
+        <v>0.16953170502</v>
       </c>
       <c r="R6">
-        <v>67.98313241704798</v>
+        <v>1.52578534518</v>
       </c>
       <c r="S6">
-        <v>0.08710700949426693</v>
+        <v>0.001850650277892527</v>
       </c>
       <c r="T6">
-        <v>0.08710700949426696</v>
+        <v>0.001850650277892528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H7">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I7">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J7">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +868,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>11.50791701718667</v>
+        <v>52.91770769515023</v>
       </c>
       <c r="R7">
-        <v>103.57125315468</v>
+        <v>476.259369256352</v>
       </c>
       <c r="S7">
-        <v>0.1327061847714369</v>
+        <v>0.577662865125506</v>
       </c>
       <c r="T7">
-        <v>0.132706184771437</v>
+        <v>0.5776628651255061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.119535</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>0.358605</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.008058455843861933</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.008058455843861934</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,60 +930,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>0.498036720285</v>
+        <v>7.553681379672</v>
       </c>
       <c r="R8">
-        <v>4.482330482565</v>
+        <v>67.983132417048</v>
       </c>
       <c r="S8">
-        <v>0.005743224679704831</v>
+        <v>0.0824578655818535</v>
       </c>
       <c r="T8">
-        <v>0.005743224679704833</v>
+        <v>0.08245786558185352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.119535</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>0.358605</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.008058455843861933</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.008058455843861934</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,104 +992,104 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>0.07956082250999999</v>
+        <v>8.95902554411111</v>
       </c>
       <c r="R9">
-        <v>0.71604740259</v>
+        <v>80.631229897</v>
       </c>
       <c r="S9">
-        <v>0.0009174738744475861</v>
+        <v>0.09779895218360189</v>
       </c>
       <c r="T9">
-        <v>0.0009174738744475863</v>
+        <v>0.09779895218360193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H10">
+        <v>34.046756</v>
+      </c>
+      <c r="I10">
+        <v>0.7886188286984264</v>
+      </c>
+      <c r="J10">
+        <v>0.7886188286984265</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.119535</v>
-      </c>
-      <c r="H10">
-        <v>0.358605</v>
-      </c>
-      <c r="I10">
-        <v>0.008058455843861933</v>
-      </c>
-      <c r="J10">
-        <v>0.008058455843861934</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>0.12120968535</v>
+        <v>0.9144769512955557</v>
       </c>
       <c r="R10">
-        <v>1.09088716815</v>
+        <v>8.230292561660001</v>
       </c>
       <c r="S10">
-        <v>0.001397757289709515</v>
+        <v>0.00998265795676259</v>
       </c>
       <c r="T10">
-        <v>0.001397757289709515</v>
+        <v>0.009982657956762595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,60 +1098,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.379094333333333</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>7.137283</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.1603867204881316</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.1603867204881316</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>9.912379964210999</v>
+        <v>1.89776617944</v>
       </c>
       <c r="R11">
-        <v>89.211419677899</v>
+        <v>17.07989561496</v>
       </c>
       <c r="S11">
-        <v>0.1143068832605171</v>
+        <v>0.02071648785070231</v>
       </c>
       <c r="T11">
-        <v>0.1143068832605171</v>
+        <v>0.02071648785070231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H12">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I12">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J12">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,42 +1178,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>1.583491880946</v>
+        <v>6.916611715170668</v>
       </c>
       <c r="R12">
-        <v>14.251426928514</v>
+        <v>62.249505436536</v>
       </c>
       <c r="S12">
-        <v>0.01826039984673635</v>
+        <v>0.07550345459715183</v>
       </c>
       <c r="T12">
-        <v>0.01826039984673636</v>
+        <v>0.07550345459715187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H13">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I13">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J13">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1240,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>2.412425444943334</v>
+        <v>0.987304314546</v>
       </c>
       <c r="R13">
-        <v>21.71182900449</v>
+        <v>8.885738830913999</v>
       </c>
       <c r="S13">
-        <v>0.02781943738087811</v>
+        <v>0.0107776595762043</v>
       </c>
       <c r="T13">
-        <v>0.02781943738087811</v>
+        <v>0.01077765957620431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1305996666666666</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.391799</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008804380700685325</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008804380700685326</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,184 +1302,184 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.166450999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N14">
-        <v>12.499353</v>
+        <v>2.36825</v>
       </c>
       <c r="O14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q14">
-        <v>0.5441371117829998</v>
+        <v>1.170989896083333</v>
       </c>
       <c r="R14">
-        <v>4.897234006046999</v>
+        <v>10.53890906475</v>
       </c>
       <c r="S14">
-        <v>0.006274841918778804</v>
+        <v>0.01278281709217934</v>
       </c>
       <c r="T14">
-        <v>0.006274841918778805</v>
+        <v>0.01278281709217935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.483361</v>
+      </c>
+      <c r="H15">
+        <v>4.450083</v>
+      </c>
+      <c r="I15">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="J15">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.391799</v>
-      </c>
-      <c r="I15">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J15">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.6655859999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N15">
-        <v>1.996758</v>
+        <v>0.241735</v>
       </c>
       <c r="O15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q15">
-        <v>0.08692530973799997</v>
+        <v>0.1195267571116667</v>
       </c>
       <c r="R15">
-        <v>0.7823277876419998</v>
+        <v>1.075740814005</v>
       </c>
       <c r="S15">
-        <v>0.001002399148184464</v>
+        <v>0.001304783823404613</v>
       </c>
       <c r="T15">
-        <v>0.001002399148184464</v>
+        <v>0.001304783823404613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.483361</v>
+      </c>
+      <c r="H16">
+        <v>4.450083</v>
+      </c>
+      <c r="I16">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="J16">
+        <v>0.1030764647025631</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1305996666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.391799</v>
-      </c>
-      <c r="I16">
-        <v>0.008804380700685325</v>
-      </c>
-      <c r="J16">
-        <v>0.008804380700685326</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>1.01401</v>
+        <v>0.16722</v>
       </c>
       <c r="N16">
-        <v>3.04203</v>
+        <v>0.50166</v>
       </c>
       <c r="O16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q16">
-        <v>0.1324293679966667</v>
+        <v>0.24804762642</v>
       </c>
       <c r="R16">
-        <v>1.19186431197</v>
+        <v>2.23242863778</v>
       </c>
       <c r="S16">
-        <v>0.001527139633722056</v>
+        <v>0.002707749613623009</v>
       </c>
       <c r="T16">
-        <v>0.001527139633722056</v>
+        <v>0.00270774961362301</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4573603333333334</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H17">
-        <v>1.372081</v>
+        <v>0.941998</v>
       </c>
       <c r="I17">
-        <v>0.03083296148325295</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J17">
-        <v>0.03083296148325296</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,60 +1488,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N17">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q17">
-        <v>1.905569418177</v>
+        <v>1.464115254135111</v>
       </c>
       <c r="R17">
-        <v>17.150124763593</v>
+        <v>13.177037287216</v>
       </c>
       <c r="S17">
-        <v>0.02197451084550992</v>
+        <v>0.0159826464413378</v>
       </c>
       <c r="T17">
-        <v>0.02197451084550993</v>
+        <v>0.0159826464413378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4573603333333334</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H18">
-        <v>1.372081</v>
+        <v>0.941998</v>
       </c>
       <c r="I18">
-        <v>0.03083296148325295</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J18">
-        <v>0.03083296148325296</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,84 +1556,518 @@
         <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q18">
-        <v>0.304412634822</v>
+        <v>0.208993560276</v>
       </c>
       <c r="R18">
-        <v>2.739713713398</v>
+        <v>1.880942042484</v>
       </c>
       <c r="S18">
-        <v>0.003510404124666189</v>
+        <v>0.002281425709467734</v>
       </c>
       <c r="T18">
-        <v>0.00351040412466619</v>
+        <v>0.002281425709467735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3139993333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.941998</v>
+      </c>
+      <c r="I19">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="J19">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.36825</v>
+      </c>
+      <c r="O19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q19">
+        <v>0.2478763070555555</v>
+      </c>
+      <c r="R19">
+        <v>2.2308867635</v>
+      </c>
+      <c r="S19">
+        <v>0.002705879448810001</v>
+      </c>
+      <c r="T19">
+        <v>0.002705879448810002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3139993333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.941998</v>
+      </c>
+      <c r="I20">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="J20">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>0.02530154294777778</v>
+      </c>
+      <c r="R20">
+        <v>0.22771388653</v>
+      </c>
+      <c r="S20">
+        <v>0.0002761979387978827</v>
+      </c>
+      <c r="T20">
+        <v>0.0002761979387978828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3139993333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.941998</v>
+      </c>
+      <c r="I21">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="J21">
+        <v>0.02181932867249556</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>0.05250696852</v>
+      </c>
+      <c r="R21">
+        <v>0.47256271668</v>
+      </c>
+      <c r="S21">
+        <v>0.000573179134082139</v>
+      </c>
+      <c r="T21">
+        <v>0.0005731791340821391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.372081</v>
-      </c>
-      <c r="I19">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J19">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.01401</v>
-      </c>
-      <c r="N19">
-        <v>3.04203</v>
-      </c>
-      <c r="O19">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="P19">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="Q19">
-        <v>0.4637679516033334</v>
-      </c>
-      <c r="R19">
-        <v>4.17391156443</v>
-      </c>
-      <c r="S19">
-        <v>0.005348046513076842</v>
-      </c>
-      <c r="T19">
-        <v>0.005348046513076842</v>
+      <c r="G22">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.692329</v>
+      </c>
+      <c r="I22">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J22">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N22">
+        <v>13.988392</v>
+      </c>
+      <c r="O22">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P22">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q22">
+        <v>1.076063271663111</v>
+      </c>
+      <c r="R22">
+        <v>9.684569444968</v>
+      </c>
+      <c r="S22">
+        <v>0.01174657443867711</v>
+      </c>
+      <c r="T22">
+        <v>0.01174657443867711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.692329</v>
+      </c>
+      <c r="I23">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J23">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.996758</v>
+      </c>
+      <c r="O23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q23">
+        <v>0.153601496598</v>
+      </c>
+      <c r="R23">
+        <v>1.382413469382</v>
+      </c>
+      <c r="S23">
+        <v>0.001676752158720174</v>
+      </c>
+      <c r="T23">
+        <v>0.001676752158720174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.692329</v>
+      </c>
+      <c r="I24">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J24">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N24">
+        <v>2.36825</v>
+      </c>
+      <c r="O24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q24">
+        <v>0.1821786838055555</v>
+      </c>
+      <c r="R24">
+        <v>1.63960815425</v>
+      </c>
+      <c r="S24">
+        <v>0.001988707845361858</v>
+      </c>
+      <c r="T24">
+        <v>0.001988707845361858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.692329</v>
+      </c>
+      <c r="I25">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J25">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.241735</v>
+      </c>
+      <c r="O25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q25">
+        <v>0.01859557231277778</v>
+      </c>
+      <c r="R25">
+        <v>0.167360150815</v>
+      </c>
+      <c r="S25">
+        <v>0.000202993894647334</v>
+      </c>
+      <c r="T25">
+        <v>0.0002029938946473341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.692329</v>
+      </c>
+      <c r="I26">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J26">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.16722</v>
+      </c>
+      <c r="N26">
+        <v>0.50166</v>
+      </c>
+      <c r="O26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q26">
+        <v>0.03859041846</v>
+      </c>
+      <c r="R26">
+        <v>0.34731376614</v>
+      </c>
+      <c r="S26">
+        <v>0.0004212626106636672</v>
+      </c>
+      <c r="T26">
+        <v>0.0004212626106636672</v>
       </c>
     </row>
   </sheetData>
